--- a/Homework 1/Program 1/TimeIt1Results.xlsx
+++ b/Homework 1/Program 1/TimeIt1Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\source\repos\benstream\cs202\CS202\Homework 1\Program 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6691966-3B64-4010-A852-E3FE5586E784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3585D5-3A47-4A53-B419-34FB679BE2B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{D1CE4A7D-F713-404E-8308-04A8F3695D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D1CE4A7D-F713-404E-8308-04A8F3695D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Default Sort</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Vector Length 10^8</t>
+  </si>
+  <si>
+    <t>Vector Length 10^9</t>
   </si>
 </sst>
 </file>
@@ -122,6 +126,2802 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Each Test </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Run 5x</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6171.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62416.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>606922.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D04D-4A55-A8B4-2FB4B518FBBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$50:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>361.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3840.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37289.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D04D-4A55-A8B4-2FB4B518FBBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D04D-4A55-A8B4-2FB4B518FBBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shuffle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$50:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2689.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27009.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310975.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D04D-4A55-A8B4-2FB4B518FBBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1612305152"/>
+        <c:axId val="1612297664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1612305152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612297664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612297664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612305152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Each Test </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Run 5x</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6171.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62416.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>606922.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52DE-4027-9105-1F6CBC595851}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$50:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>361.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3840.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37289.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52DE-4027-9105-1F6CBC595851}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-52DE-4027-9105-1F6CBC595851}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shuffle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Vector Length 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Length 10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vector Length 10^3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Length 10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vector Length 10^5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vector Length 10^6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vector Length 10^7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vector Length 10^8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vector Length 10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$50:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2689.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27009.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310975.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-52DE-4027-9105-1F6CBC595851}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1612305152"/>
+        <c:axId val="1612297664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1612305152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612297664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612297664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612305152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A61928-038B-497A-AB91-50F9D98D322E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBE411F-563B-4FA4-9F0A-21368CF99D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,22 +3221,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86DEA6-8534-4C4A-B8AC-EE8B08562180}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.41796875" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -467,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>0</v>
       </c>
@@ -481,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>0</v>
       </c>
@@ -495,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>0</v>
       </c>
@@ -509,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>0</v>
       </c>
@@ -523,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -540,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>0</v>
       </c>
@@ -554,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>0</v>
       </c>
@@ -568,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>0</v>
       </c>
@@ -582,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>0</v>
       </c>
@@ -596,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -613,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>0</v>
       </c>
@@ -627,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>0</v>
       </c>
@@ -641,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>0</v>
       </c>
@@ -655,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>1</v>
       </c>
@@ -669,12 +3469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -686,9 +3486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -700,9 +3500,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -714,9 +3514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -728,9 +3528,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -742,12 +3542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -759,9 +3559,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -773,9 +3573,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -787,9 +3587,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -801,9 +3601,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -815,12 +3615,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27">
-        <v>1043</v>
+        <v>634</v>
       </c>
       <c r="C27">
         <v>37</v>
@@ -832,9 +3632,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
-        <v>862</v>
+        <v>636</v>
       </c>
       <c r="C28">
         <v>39</v>
@@ -846,9 +3646,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
-        <v>827</v>
+        <v>632</v>
       </c>
       <c r="C29">
         <v>44</v>
@@ -860,9 +3660,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
-        <v>827</v>
+        <v>738</v>
       </c>
       <c r="C30">
         <v>38</v>
@@ -874,9 +3674,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
-        <v>858</v>
+        <v>642</v>
       </c>
       <c r="C31">
         <v>34</v>
@@ -888,15 +3688,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32">
-        <v>8554</v>
+        <v>6213</v>
       </c>
       <c r="C32">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -905,12 +3705,12 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
-        <v>8262</v>
+        <v>6690</v>
       </c>
       <c r="C33">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -919,12 +3719,12 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
-        <v>8466</v>
+        <v>5825</v>
       </c>
       <c r="C34">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -933,12 +3733,12 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
-        <v>8985</v>
+        <v>6109</v>
       </c>
       <c r="C35">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -947,12 +3747,12 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
-        <v>8998</v>
+        <v>6021</v>
       </c>
       <c r="C36">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -961,12 +3761,371 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>11</v>
       </c>
+      <c r="B37">
+        <v>62282</v>
+      </c>
+      <c r="C37">
+        <v>4079</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>27261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>64839</v>
+      </c>
+      <c r="C38">
+        <v>3806</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>26735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>61111</v>
+      </c>
+      <c r="C39">
+        <v>3698</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>27198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>61458</v>
+      </c>
+      <c r="C40">
+        <v>3883</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>27026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41">
+        <v>62394</v>
+      </c>
+      <c r="C41">
+        <v>3735</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>26829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>582214</v>
+      </c>
+      <c r="C42">
+        <v>35855</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>317855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>606559</v>
+      </c>
+      <c r="C43">
+        <v>37028</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>309473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>674232</v>
+      </c>
+      <c r="C44">
+        <v>36973</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>309605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>596020</v>
+      </c>
+      <c r="C45">
+        <v>38863</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>309911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <v>575588</v>
+      </c>
+      <c r="C46">
+        <v>37729</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>308032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:F50" si="0">AVERAGE(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE(B7:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:F51" si="1">AVERAGE(C7:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B12:B16)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:F52" si="2">AVERAGE(C12:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(B16:B21)</f>
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:F53" si="3">AVERAGE(C16:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <f>AVERAGE(B22:B26)</f>
+        <v>61.4</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:F54" si="4">AVERAGE(C22:C26)</f>
+        <v>3.8</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <f>AVERAGE(B27:B31)</f>
+        <v>656.4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:F55" si="5">AVERAGE(C27:C31)</f>
+        <v>38.4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>215.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <f>AVERAGE(B32:B36)</f>
+        <v>6171.6</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:F56" si="6">AVERAGE(C32:C36)</f>
+        <v>361.2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>2689.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(B37:B41)</f>
+        <v>62416.800000000003</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:F57" si="7">AVERAGE(C37:C41)</f>
+        <v>3840.2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>27009.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <f>AVERAGE(B42:B46)</f>
+        <v>606922.6</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:F58" si="8">AVERAGE(C42:C46)</f>
+        <v>37289.599999999999</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="8"/>
+        <v>310975.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDEF493-E503-4221-8CEE-301920EF9FF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>